--- a/working_hours.xlsx
+++ b/working_hours.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leon/Desktop/RA/shudi-image-evaluation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,13 +27,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>week</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ching-yu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jie Miao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -37,14 +49,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -74,10 +86,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -403,160 +420,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -564,10 +596,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/working_hours.xlsx
+++ b/working_hours.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leon/Desktop/RA/shudi-image-evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Laiochen/Dropbox/HEC-RA/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930B8FA9-2E63-464E-9E3C-FE84C01C7AAC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -44,19 +45,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -86,13 +87,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -419,16 +423,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -450,7 +454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -461,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -472,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -483,112 +487,115 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>

--- a/working_hours.xlsx
+++ b/working_hours.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Laiochen/Dropbox/HEC-RA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leon/Desktop/RA/shudi-image-evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930B8FA9-2E63-464E-9E3C-FE84C01C7AAC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="560" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,19 +44,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <charset val="136"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -87,7 +86,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -423,16 +422,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -454,7 +453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -465,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -476,7 +475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -487,115 +486,121 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>

--- a/working_hours.xlsx
+++ b/working_hours.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="560" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="540" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -502,17 +502,23 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">

--- a/working_hours.xlsx
+++ b/working_hours.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="540" windowWidth="25600" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -525,15 +525,24 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
